--- a/medicine/Enfance/Olivier_Peru/Olivier_Peru.xlsx
+++ b/medicine/Enfance/Olivier_Peru/Olivier_Peru.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Olivier Peru, né le 11 octobre 1977 à Montpellier, est un romancier, illustrateur, scénariste et dessinateur de bande dessinée.
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Olivier Peru signe plusieurs séries (bande dessinée) : Zombies, Nosferatu[1], Mjöllnir[2], Lancelot, La Guerre des Orcs (aux éditions Soleil). 
-Druide, son premier roman paru aux éditions Éclipse[3], a été récompensé par le prix révélation de l'année 2011 aux Futuriales[4] et le prix Imaginales des lycéens 2013. Il coécrit également la série de romans Les Haut-Conteurs dont le tome 1 La Voix des rois reçoit le Prix des Incorruptibles 2012[5]. En 2013, il sort le premier tome d'une nouvelle trilogie fantastique intitulée Martyrs. Il signe ses romans Oliver Peru. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Olivier Peru signe plusieurs séries (bande dessinée) : Zombies, Nosferatu, Mjöllnir, Lancelot, La Guerre des Orcs (aux éditions Soleil). 
+Druide, son premier roman paru aux éditions Éclipse, a été récompensé par le prix révélation de l'année 2011 aux Futuriales et le prix Imaginales des lycéens 2013. Il coécrit également la série de romans Les Haut-Conteurs dont le tome 1 La Voix des rois reçoit le Prix des Incorruptibles 2012. En 2013, il sort le premier tome d'une nouvelle trilogie fantastique intitulée Martyrs. Il signe ses romans Oliver Peru. 
 En parallèle, il travaille comme scénariste, storyboarder et designer au cinéma et à la télévision.
 En 2015, il fonde le studio d'écriture transmédia Termites Factory avec Rémi Guérin, Nicolas Mitric et Sylvain Dos Santos. En novembre de la même année, ils lancent un premier projet, éditer le roman Darryl Ouvremonde d'Olivier Peru, via une campagne de crowdfunding sur le site Ulule.com.
 </t>
@@ -547,8 +561,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans
-Darryl Ouvremonde, roman jeunesse fantasy, illustrations intérieures et couverture de l'auteur et de Nicolas Mitric, avec des nouvelles de Remi Guerin, Patrick McSpare et Jean-Luc Cano, éditions Termites Factory, 2016, éditions Michel Lafon, 2017
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Darryl Ouvremonde, roman jeunesse fantasy, illustrations intérieures et couverture de l'auteur et de Nicolas Mitric, avec des nouvelles de Remi Guerin, Patrick McSpare et Jean-Luc Cano, éditions Termites Factory, 2016, éditions Michel Lafon, 2017
 Martyrs, roman fantasy, illustrations intérieures et couverture de l'auteur, éditions J'ai lu
 Livre I, J'ai lu, format semi-poche, mars 2013  (ISBN 978-2290061015), format poche, mai 2015  (ISBN 978-2290068595), puis en recueil avec le Livre II, à paraître en 2022  (ISBN 978-2290086759)
 Livre II, J'ai lu, format semi-poche, août 2014  (ISBN 978-2290086742), format poche, mai 2016  (ISBN 978-2290086759), puis en recueil avec le Livre I, à paraître en 2022  (ISBN 978-2290086759)
@@ -560,13 +579,81 @@
 Treize Damnés, éditions Scrinéo Jeunesse, novembre 2011  (ISBN 978-2919755066) ; éditions Pocket, janvier 2014  (ISBN 978-2266231107)
 La Mort noire, éditions Scrinéo Jeunesse, novembre 2012  (ISBN 978-2919755905) ; éditions Pocket, avril 2014  (ISBN 978-2266247764)
 Les Haut-Conteurs Origine, Le Songe Maudit, préquel, éditions Scrinéo Jeunesse, 12 octobre 2017
-Druide, roman polar fantasy, carte et couverture de l'auteur, éditions Eclipse, octobre 2010  (ISBN 978-2362700224) ; éditions J'ai lu, avril 2012  (ISBN 978-2290054048)
-Nouvelles
-Le Monstre de Shaerten, nouvelle publiée dans Anthologie Trolls et Légendes : les semi-hommes, anthologie dirigée par Valérie Frances et Denis Labbé, Asgard éditions, 2013
+Druide, roman polar fantasy, carte et couverture de l'auteur, éditions Eclipse, octobre 2010  (ISBN 978-2362700224) ; éditions J'ai lu, avril 2012  (ISBN 978-2290054048)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Olivier_Peru</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Olivier_Peru</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Nouvelles</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le Monstre de Shaerten, nouvelle publiée dans Anthologie Trolls et Légendes : les semi-hommes, anthologie dirigée par Valérie Frances et Denis Labbé, Asgard éditions, 2013
 Régulateur, nouvelle publiée dans Dimension super-pouvoirs, anthologie présentée par Jean-Marc Lainé, éditions Rivière Blanche, 2013
-Repose en paix, nouvelle publiée dans Lunatique 78-79, avril 2008
-Bandes dessinées
-Terres d'Ogon, Soleil Productions
+Repose en paix, nouvelle publiée dans Lunatique 78-79, avril 2008</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Olivier_Peru</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Olivier_Peru</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Bandes dessinées</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Terres d'Ogon, Soleil Productions
 3. Ma'a-kuru, Bertrand Benoit, 21 juin 2023
 Conquêtes, Soleil Productions
 9. Sahondra, dessins de Kyko duarte et Stéphane Louis, couleurs d'Olivier Héban, 24 aout 2022
@@ -616,8 +703,8 @@
 Spin-off :
 0. La Mort et le mourant, dessins de Lucio Leoni, couleurs de Vattani, 2012
 Premier cycle :
-1. La Divine Comédie[6], dessins de Sophian Cholet, couleurs de Simon Champelovier, 2010
-2. La Brièveté de la vie[7], dessins de Sophian Cholet, couleurs de Simon Champelovier, 2011
+1. La Divine Comédie, dessins de Sophian Cholet, couleurs de Simon Champelovier, 2010
+2. La Brièveté de la vie, dessins de Sophian Cholet, couleurs de Simon Champelovier, 2011
 3. Précis de décomposition, dessins de Sophian Cholet, couleurs de Simon Champelovier, 2013
 Intégrale du cycle 1, tirage de tête numéroté et signé par les auteurs, des tomes 1 à 3 (en noir et blanc), avec trois carnets graphiques, deux ex-libris, un triptyque, un livret en couleurs et un dessin original, Les Sculpteurs de Bulles, 2014
 Intégrale, tomes 1 à 3, Soleil Productions, 8 novembre 2017
@@ -657,13 +744,47 @@
 Kookaburra Universe, (série-concept de science-fiction), Soleil Productions
 6. Le Serment dakoïd, scénario de Nicolas Mitric, dessins et couleurs d’Olivier et Stéphane Peru, 2006
 Zak Blackhole, Soleil :
-Star Epidemy[8],[9], scénario d’Olivier Peru,  dessins de Jean-Luc Cano et Stéphane Peru, 2004.
+Star Epidemy scénario d’Olivier Peru,  dessins de Jean-Luc Cano et Stéphane Peru, 2004.
 Shaman, scénario et dessins d’Olivier et Stéphane Peru, couleurs de Stéphane Peru, Soleil Productions
 L'Éveil, 2003
 Les Géants de porcelaine, 2003
-Cendre et poussière, 2005
-Illustration
-Festival Les Halliennales, salon des littératures fantastiques, 2014, affiche officielle.
+Cendre et poussière, 2005</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Olivier_Peru</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Olivier_Peru</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Illustration</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Festival Les Halliennales, salon des littératures fantastiques, 2014, affiche officielle.
 Festival de BD des Arts et Métiers de Cluny 2014, affiche officielle.
 Hero Corp
 Les Origines, scénario Simon Astier, dessin de Marco Failla, illustration de couverture, éditions Soleil, 2013
@@ -682,53 +803,89 @@
 Arcanes, scénario Patrick Renault, dessin Jean-Jacques Dzialowski, Teddy Kristiansen, Christophe Palma et Stéphane Collignon, couleur Dimitri Fogolin et Fabien Alquier, 2008
 Dimension Philip K. Dick, hommage anthologique (Richard Comballot (directeur), Bruno Lecigne, Jean-Pierre Hubert, Pierre Stolze, Daniel Walther, Xavier Mauméjean, Richard Canal, Alain Dartevelle, Laurent Queyssi, Ugo Bellagamba, Jean-Pierre Vernay, Philippe Curval, Johan Heliot et Jacques Barbéri. ), illustration de couverture, coll. Rivière Blanche Fusée, Black Coat Press, mai 2008
 Qin, livre de base, illustrations pour le jeu de rôle, 7e Cercle 2005, (édition anglaise) Cubicle 2006, (édition italienne) Asterion Press 2010
-Little Fears, jeu de rôle écrit par Jason Blair, Key 20 Publishing 2001, illustrations pour l'édition en français, 7e Cercle 2003
-Télévision  et cinéma
-Hero Corp : saisons 1, 2, 3 et 4 (tous disponibles en DVD) : coconception du générique, design, illustration et story-board, micro-apparition dans le dernier épisode de la saison 2, série 15x26 min (CALT Productions - Simon Astier), 2008-2014
+Little Fears, jeu de rôle écrit par Jason Blair, Key 20 Publishing 2001, illustrations pour l'édition en français, 7e Cercle 2003</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Olivier_Peru</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Olivier_Peru</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Télévision  et cinéma</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Hero Corp : saisons 1, 2, 3 et 4 (tous disponibles en DVD) : coconception du générique, design, illustration et story-board, micro-apparition dans le dernier épisode de la saison 2, série 15x26 min (CALT Productions - Simon Astier), 2008-2014
 Deviens un super-héros... pour de vrai : illustrations pour le film-documentaire d'Aleksandar Dzerdz, Peignoir Prod, 2011
 Azad : story-board, long-métrage (KIEN Productions - Nicolas Tackian), 2008</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Olivier_Peru</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Olivier_Peru</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Récompenses</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Le Monstre de Shaerten (nouvelle) :
-Prix Merlin de la nouvelle 2014[10].
+Prix Merlin de la nouvelle 2014.
 Les Elfes :
-Prix Découvertes du Festival International de BD d'Angoulême : prix BD des lycées professionnels du Poitou Charente 2014[11].
+Prix Découvertes du Festival International de BD d'Angoulême : prix BD des lycées professionnels du Poitou Charente 2014.
 Martyrs :
-Meilleur roman fantasy 2014, Vampires &amp; Sorcières Awards[12].
-Meilleur roman francophone 2013 et Meilleure nouvelle saga 2013, Vampires &amp; Sorcières Awards[13].
+Meilleur roman fantasy 2014, Vampires &amp; Sorcières Awards.
+Meilleur roman francophone 2013 et Meilleure nouvelle saga 2013, Vampires &amp; Sorcières Awards.
 Druide :
-Prix Imaginales des lycéens 2013[14].
+Prix Imaginales des lycéens 2013.
 Plume d'argent, catégorie plume imaginaire, prix Plume libre 2013.
 Prix Révélation 2011 du festival Les Futuriales.
 Les Haut-Conteurs :
-tome 1 : prix des Incorruptibles 2011/12[15].
+tome 1 : prix des Incorruptibles 2011/12.
 tome 1 : prix du meilleur roman fantasy jeunesse Elbakin.net 2011.
 Shaman :
 Prix BD Khimaira 2006.</t>
